--- a/medicine/Enfance/Grand_prix_littéraire_de_la_Montérégie/Grand_prix_littéraire_de_la_Montérégie.xlsx
+++ b/medicine/Enfance/Grand_prix_littéraire_de_la_Montérégie/Grand_prix_littéraire_de_la_Montérégie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Grand_prix_litt%C3%A9raire_de_la_Mont%C3%A9r%C3%A9gie</t>
+          <t>Grand_prix_littéraire_de_la_Montérégie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le grand prix littéraire de la Montérégie un prix littéraire québécois. Il a été créé en 1999 par l'Association des auteurs de la Montérégie (AAM). Il est décerné à un écrivain pour l'ensemble de son œuvre, tandis que les grands prix du livre de la Montérégie sont attribués dans les trois catégories suivantes : roman, littérature pour la jeunesse et autres genres littéraires.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Grand_prix_litt%C3%A9raire_de_la_Mont%C3%A9r%C3%A9gie</t>
+          <t>Grand_prix_littéraire_de_la_Montérégie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,26 +525,220 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Grand prix littéraire de la Montérégie
-1999 : François Barcelo
+          <t>Grand prix littéraire de la Montérégie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1999 : François Barcelo
 2002 : Madeleine Ouellette-Michalska
-2003 : Hélène Sévigny
-Grands prix du livre de la Montérégie
-Prix Arlette-Cousture
-2016 - Gilles Jobidon, La petite B., Leméac Éditeur
+2003 : Hélène Sévigny</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Grand_prix_littéraire_de_la_Montérégie</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grand_prix_litt%C3%A9raire_de_la_Mont%C3%A9r%C3%A9gie</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Lauréats</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Grands prix du livre de la Montérégie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Prix Arlette-Cousture</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2016 - Gilles Jobidon, La petite B., Leméac Éditeur
 2017 - Kim Thúy, Vi, Libre Expression
 2018 - Karoline Georges, De synthèse, Éditions Alto
-2019 - Gilles Jobidon, Le Tranquille affligé, Leméac Éditeur
-Prix Philippe-Béha
-2017 - Jean-François Sénéchal, L’enquête secrète de la ruelle, Jules la mouche
-2019 - Andrée-Anne Gratton, L'enfant qui n'avait jamais vu une fleur, Éditions de La Bagnole
-Prix Essai
-2019 - Marie-Diotte, Serge Godin et André D. Beaudoin, Gilles Besner, Éditions Margil
-Prix Bernadette-Renaud
-2016 - Mylène Arpin, Curieux de nature! Tome 2- Les fleurs sauvages, Éditions Hurtubise
-2018 - Jean-François Sénéchal, Le boulevard, Leméac Éditeur
-Roman - prix du jury
-1999 - Micheline Lachance
+2019 - Gilles Jobidon, Le Tranquille affligé, Leméac Éditeur</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Grand_prix_littéraire_de_la_Montérégie</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grand_prix_litt%C3%A9raire_de_la_Mont%C3%A9r%C3%A9gie</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Lauréats</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Grands prix du livre de la Montérégie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Prix Philippe-Béha</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2017 - Jean-François Sénéchal, L’enquête secrète de la ruelle, Jules la mouche
+2019 - Andrée-Anne Gratton, L'enfant qui n'avait jamais vu une fleur, Éditions de La Bagnole</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Grand_prix_littéraire_de_la_Montérégie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grand_prix_litt%C3%A9raire_de_la_Mont%C3%A9r%C3%A9gie</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Lauréats</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Grands prix du livre de la Montérégie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Prix Essai</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2019 - Marie-Diotte, Serge Godin et André D. Beaudoin, Gilles Besner, Éditions Margil</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Grand_prix_littéraire_de_la_Montérégie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grand_prix_litt%C3%A9raire_de_la_Mont%C3%A9r%C3%A9gie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Lauréats</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Grands prix du livre de la Montérégie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Prix Bernadette-Renaud</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2016 - Mylène Arpin, Curieux de nature! Tome 2- Les fleurs sauvages, Éditions Hurtubise
+2018 - Jean-François Sénéchal, Le boulevard, Leméac Éditeur</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Grand_prix_littéraire_de_la_Montérégie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grand_prix_litt%C3%A9raire_de_la_Mont%C3%A9r%C3%A9gie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Lauréats</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Grands prix du livre de la Montérégie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Roman - prix du jury</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1999 - Micheline Lachance
 2000 - Dominique Demers
 2001 - Pauline Gill
 2002 - Bernadette Renaud
@@ -542,12 +748,88 @@
 2008 - Patrick Sénécal
 2010 - Nicolas Chalifour - Prix spécial du jury
 2011 - Francis Malka
-2013 - Nicolas Chaifour [1]
-Roman - prix du public
-2006 - Pauline Gill
-2008 - Pauline Gill
-Littérature pour la jeunesse - prix du jury
-1999 - Dominique Demers
+2013 - Nicolas Chaifour </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Grand_prix_littéraire_de_la_Montérégie</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grand_prix_litt%C3%A9raire_de_la_Mont%C3%A9r%C3%A9gie</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Lauréats</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Grands prix du livre de la Montérégie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Roman - prix du public</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2006 - Pauline Gill
+2008 - Pauline Gill</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Grand_prix_littéraire_de_la_Montérégie</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grand_prix_litt%C3%A9raire_de_la_Mont%C3%A9r%C3%A9gie</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Lauréats</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Grands prix du livre de la Montérégie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Littérature pour la jeunesse - prix du jury</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1999 - Dominique Demers
 2000 - Gilles Gauthier
 2001 - Gilles Gauthier
 2002 - Gilles Gauthier
@@ -560,12 +842,88 @@
 2010 - Bernadette Renaud
 2011 - Sylvain Meunier
 2012 - Marilou Addison
-2013 - Isabelle Gaul
-Littérature pour la jeunesse - prix du public
-2006 - Danielle Simard
-2008 - Danielle Simard
-Tout-Petits - prix du jury
-2000 - Bernadette Renaud
+2013 - Isabelle Gaul</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Grand_prix_littéraire_de_la_Montérégie</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grand_prix_litt%C3%A9raire_de_la_Mont%C3%A9r%C3%A9gie</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Lauréats</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Grands prix du livre de la Montérégie</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Littérature pour la jeunesse - prix du public</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2006 - Danielle Simard
+2008 - Danielle Simard</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Grand_prix_littéraire_de_la_Montérégie</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grand_prix_litt%C3%A9raire_de_la_Mont%C3%A9r%C3%A9gie</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Lauréats</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Grands prix du livre de la Montérégie</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Tout-Petits - prix du jury</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2000 - Bernadette Renaud
 2001 - Carole Jean Tremblay
 2002 - Annie Lavoie
 2003 - Mathieu Quirion
@@ -580,17 +938,93 @@
 2012 - Sylvie Tétreault (2e prix)
 2013- Marie Lasnier
 2014 - Julie Royer
-2015 - Pierrette Dubé
-Autres genres - prix du jury
-1999 - Dolorès Lamarre
+2015 - Pierrette Dubé</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Grand_prix_littéraire_de_la_Montérégie</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grand_prix_litt%C3%A9raire_de_la_Mont%C3%A9r%C3%A9gie</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Lauréats</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Grands prix du livre de la Montérégie</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Autres genres - prix du jury</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1999 - Dolorès Lamarre
 2000 - Robert Gauthier
 2001 - Micheline Lachance
 2002 - Pierre Godin
 2003 - François Barcelo
 2004 - Ginette Plante
-2006 - Marcel Fournier
-Autres genres - prix du public
-2006 - Pierre Godin</t>
+2006 - Marcel Fournier</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Grand_prix_littéraire_de_la_Montérégie</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grand_prix_litt%C3%A9raire_de_la_Mont%C3%A9r%C3%A9gie</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Lauréats</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Grands prix du livre de la Montérégie</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Autres genres - prix du public</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2006 - Pierre Godin</t>
         </is>
       </c>
     </row>
